--- a/dasd.xlsx
+++ b/dasd.xlsx
@@ -6,6 +6,32 @@
     <sheet name="sorgu" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>d_no</t>
+  </si>
+  <si>
+    <t>s_no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>saeqw</t>
+  </si>
+  <si>
+    <t>ewq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,13 +401,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>